--- a/z_practice/vendor/github.com/360EntSecGroup-Skylar/excelize/test/Book1.xlsx
+++ b/z_practice/vendor/github.com/360EntSecGroup-Skylar/excelize/test/Book1.xlsx
@@ -2702,6 +2702,21 @@
       <c r="D11" s="4">
         <v>37</v>
       </c>
+      <c r="E11" s="4">
+        <f t="normal">B2+B3</f>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/z_practice/vendor/github.com/360EntSecGroup-Skylar/excelize/test/Book1.xlsx
+++ b/z_practice/vendor/github.com/360EntSecGroup-Skylar/excelize/test/Book1.xlsx
@@ -2718,7 +2718,6 @@
         <f t="shared" si="1"/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A6"/>
